--- a/data/trans_dic/P23_9_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 33,57</t>
+          <t>11,06; 25,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,85; 35,46</t>
+          <t>18,38; 32,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 20,79</t>
+          <t>11,89; 20,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 26,51</t>
+          <t>6,65; 19,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 26,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 26,17</t>
+          <t>12,84; 26,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,05; 29,89</t>
+          <t>19,02; 29,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 28,62</t>
+          <t>19,06; 27,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 29,59</t>
+          <t>17,97; 32,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 22,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 28,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 23,16</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 25,12</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,18</t>
+          <t>12,67; 23,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,03</t>
+          <t>14,77; 23,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 21,46</t>
+          <t>13,24; 21,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 21,97</t>
+          <t>9,53; 17,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 19,1</t>
+          <t>10,59; 18,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 21,04</t>
+          <t>16,21; 23,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,22</t>
+          <t>13,41; 18,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 20,98</t>
+          <t>7,95; 14,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 19,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 19,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 21,88</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 19,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 15,1</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>17,6%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,97</t>
+          <t>8,92; 19,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 20,71</t>
+          <t>13,19; 21,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 18,13</t>
+          <t>11,27; 17,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,61</t>
+          <t>6,88; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,38</t>
+          <t>10,24; 18,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 13,82</t>
+          <t>14,82; 22,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,97; 16,14</t>
+          <t>17,4; 24,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 20,59</t>
+          <t>5,51; 11,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 17,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 20,55</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 20,22</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 11,49</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,24</t>
+          <t>10,29; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,48; 22,44</t>
+          <t>17,35; 28,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 20,66</t>
+          <t>8,73; 17,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 21,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 20,95</t>
+          <t>13,28; 19,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 21,07</t>
+          <t>15,22; 24,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 17,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 21,39</t>
+          <t>9,02; 17,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 19,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 17,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 25,49</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 15,78</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 17,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 22,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 18,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 14,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 17,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 21,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 21,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 15,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 16,85</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 21,56</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 19,07</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,12; 14,18</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>57280</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126803</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>113765</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52801</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75965</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>143583</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>195975</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>148003</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>133245</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>270386</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>309740</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>200805</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36284; 82140</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93500; 164192</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>84861; 145386</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29128; 85219</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52835; 107657</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114842; 178786</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>161673; 235387</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>108066; 196394</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>97785; 169274</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>230941; 319289</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>258604; 361717</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>150065; 261119</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>154151</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>222855</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>267309</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>142800</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140617</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234463</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>235456</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119852</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>294767</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>457318</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>502765</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>262652</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>116733; 213565</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>176111; 276842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>212670; 344781</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100234; 188297</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104695; 185906</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>196806; 280854</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>197779; 274967</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86126; 158570</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>234947; 364413</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>394276; 526400</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>433304; 589423</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>209996; 322293</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>95417</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>142908</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>154218</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>81683</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106204</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>168815</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>239211</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72168</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>201621</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>311723</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>393429</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>153850</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63486; 141547</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>110815; 183976</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>122009; 192381</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56488; 113542</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77901; 140631</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>137021; 206307</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>200521; 280893</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49413; 100765</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>158830; 254693</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>268041; 362636</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>342906; 451989</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>117124; 197325</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189550</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>186216</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>132117</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>218858</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>140583</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>122361</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>408408</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>326799</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>254479</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>143620; 248444</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>144444; 240575</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>94639; 187425</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>181963; 271561</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111182; 177135</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86913; 165964</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>350030; 489184</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>277648; 398383</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>203271; 322953</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>579.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>496397</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>678781</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>409401</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>541644</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>687444</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>670642</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>462384</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1038041</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1366226</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1205934</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>871785</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>414757; 587201</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>595038; 769845</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>466501; 631782</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>336657; 487996</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>468877; 617769</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>624248; 760972</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>605622; 744731</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>385069; 538507</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>931326; 1160966</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1263030; 1475702</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1099791; 1311733</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>771698; 983882</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
